--- a/quality_result.xlsx
+++ b/quality_result.xlsx
@@ -506,37 +506,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006069607743096105</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06437714713318746</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1253982471456593</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1849076142208717</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2531850323321882</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3141456630271696</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3758886155171827</v>
+        <v>0.1139771048046652</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4359648824438674</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4963548339550335</v>
+        <v>0.1498996587262894</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5673647093504461</v>
+        <v>0.16887946575358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6265603918411773</v>
+        <v>0.178565894549069</v>
       </c>
     </row>
     <row r="3">
@@ -546,37 +546,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005616087861918313</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05948291174881046</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1175599118659698</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1740760477254088</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.235388156328303</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2943381822167296</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3551892122737597</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4141090035034411</v>
+        <v>0.1277225365366954</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4668155723609867</v>
+        <v>0.1236144022796933</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5315479767344301</v>
+        <v>0.1394195701387393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5894549068961478</v>
+        <v>0.1529873732506415</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +586,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006277471021969259</v>
+        <v>0.001855652180485795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06494782631700284</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1270649327089876</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1879310800953903</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2549197458776932</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3183747359191525</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3836664814793819</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4457306772185626</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5045635438043515</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5741712869004562</v>
+        <v>0.1704478886759865</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6364811392419415</v>
+        <v>0.1890799971277074</v>
       </c>
     </row>
     <row r="5">
@@ -626,37 +626,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006164091051674811</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06343231404740039</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1249107132733931</v>
+        <v>0.03783111675491407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1845788123070178</v>
+        <v>0.05631205191290906</v>
       </c>
       <c r="F5" t="n">
-        <v>0.250807832288348</v>
+        <v>0.07594946276790743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3125923574341357</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3769241525792054</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4388636303510622</v>
+        <v>0.1323295426629932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4940872345491445</v>
+        <v>0.1499223347203483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.562821951873982</v>
+        <v>0.1686262504865891</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6252073908623302</v>
+        <v>0.1793633336734732</v>
       </c>
     </row>
     <row r="6">
@@ -666,37 +666,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005918434449370174</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06339830005631206</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1249485065968246</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1828478780938559</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.24688488531616</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3067684062933442</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3680540595698364</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4237274043167534</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4785277232924032</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5454030091044116</v>
+        <v>0.163629973128947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.604602470927486</v>
+        <v>0.154325256900116</v>
       </c>
     </row>
     <row r="7">
@@ -706,37 +706,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006065828410752956</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06187900845436645</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1230021504401033</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1852590921287845</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2497836332233548</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.30801180663424</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3724191884261726</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4315052702789525</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4887319206189035</v>
+        <v>0.1497598234295929</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5553917844873525</v>
+        <v>0.1655309772975506</v>
       </c>
       <c r="L7" t="n">
-        <v>0.615717487348685</v>
+        <v>0.1677305487212629</v>
       </c>
     </row>
     <row r="8">
@@ -746,37 +746,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006179208381047404</v>
+        <v>0.001855652180485795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06291832484873222</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1242644474427148</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1847564409271458</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2504601337127783</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3106573392744438</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3722528978030741</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4314183456350601</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4916306685260982</v>
+        <v>0.1462526030151513</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5598136033288359</v>
+        <v>0.1651190300721475</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6219873997059679</v>
+        <v>0.1710601405155765</v>
       </c>
     </row>
     <row r="9">
@@ -786,37 +786,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006073387075439252</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06347388670317501</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1236710922648405</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1837700351855841</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.248744316828989</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3059936431629988</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3714403413492972</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4311424543740103</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4870463383938594</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5549609406002336</v>
+        <v>0.1658068685586004</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6151883808206442</v>
+        <v>0.1678741633503025</v>
       </c>
     </row>
     <row r="10">
@@ -826,37 +826,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006182987713390552</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06392362725200966</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1265925161660941</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1863286431818955</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2537216975249152</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3142363670034052</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H10" t="n">
-        <v>0.378341402207886</v>
+        <v>16231.72738164076</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4391092869533668</v>
+        <v>16231.74576809261</v>
       </c>
       <c r="J10" t="n">
-        <v>16232.11306250638</v>
+        <v>0.15009240467579</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5681092378220464</v>
+        <v>0.169722256866102</v>
       </c>
       <c r="L10" t="n">
-        <v>16231.74547330469</v>
+        <v>0.1821222462839715</v>
       </c>
     </row>
     <row r="11">
@@ -866,37 +866,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006069607743096105</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06337184472991002</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1254473784661202</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1859507099475807</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2508796396028677</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3124109494816646</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H11" t="n">
-        <v>0.377298306481177</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4397102007959274</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4951378889405398</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5642732154937509</v>
+        <v>0.1704478886759865</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6265074811883733</v>
+        <v>0.1803459600826918</v>
       </c>
     </row>
     <row r="12">
@@ -906,37 +906,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005786157817359985</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05989107964187047</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D12" t="n">
-        <v>0.118992278824023</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1760790938672774</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2391826060008239</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G12" t="n">
-        <v>0.296004867780058</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3573850043651289</v>
+        <v>0.1139430908135769</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4175670925974218</v>
+        <v>0.131154170304274</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4713545505051078</v>
+        <v>0.1356326791309047</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5360264855610608</v>
+        <v>0.1537923710397321</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5955736459597047</v>
+        <v>0.1386410276760507</v>
       </c>
     </row>
     <row r="13">
@@ -946,37 +946,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006152753054645367</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06404834521933356</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1256136690892187</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1870164816683485</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2540769547651712</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3153739460386928</v>
+        <v>0.09449464657573593</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3787684667626617</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I13" t="n">
-        <v>0.438247599179129</v>
+        <v>0.1323295426629932</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4968499264919859</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5676028072880644</v>
+        <v>0.1697184775337589</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6278604821672203</v>
+        <v>0.1825644281681198</v>
       </c>
     </row>
     <row r="14">
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005294844612750711</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0580770001171593</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1186256835867376</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1785885705431279</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2450556884620763</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3048333881336523</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3666972792586461</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4231227111418497</v>
+        <v>0.1287542942663749</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4843327777714789</v>
+        <v>0.1420424267848842</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5557583797246378</v>
+        <v>0.142930569885524</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6144476316813872</v>
+        <v>0.1552134000007559</v>
       </c>
     </row>
     <row r="15">
@@ -1026,37 +1026,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00603559375200777</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06391606858732336</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1256741384067091</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1873717389086044</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2542583627176423</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3147352388727008</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3808848928748247</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4435197677978208</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4993064925150323</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5709210610853487</v>
+        <v>0.1704478886759865</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6324977229522633</v>
+        <v>0.1853951480931379</v>
       </c>
     </row>
     <row r="16">
@@ -1066,37 +1066,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006118739063557032</v>
+        <v>0.001844314183456351</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06429778115398134</v>
+        <v>0.01911964232398704</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1261276582878869</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1866120931076316</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2513860701368496</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3134729418700892</v>
+        <v>0.09448330857870649</v>
       </c>
       <c r="H16" t="n">
-        <v>0.381247708779767</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4404963019233022</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4984145700820493</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5687479449880384</v>
+        <v>0.1696542288839254</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6275543562474253</v>
+        <v>0.1832900599780043</v>
       </c>
     </row>
   </sheetData>
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.5913199441174</v>
+        <v>117.7645771335169</v>
       </c>
       <c r="C2" t="n">
-        <v>102.335608924449</v>
+        <v>107.6081285594583</v>
       </c>
       <c r="D2" t="n">
-        <v>99.44001153666058</v>
+        <v>104.6457363556959</v>
       </c>
       <c r="E2" t="n">
-        <v>97.75337824375539</v>
+        <v>102.9177871758817</v>
       </c>
       <c r="F2" t="n">
-        <v>96.38854591807244</v>
+        <v>101.6183275111103</v>
       </c>
       <c r="G2" t="n">
-        <v>95.45161551111894</v>
+        <v>100.6693752668236</v>
       </c>
       <c r="H2" t="n">
-        <v>94.67233447004192</v>
+        <v>99.85474998480416</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02841111830202</v>
+        <v>99.20673019897004</v>
       </c>
       <c r="J2" t="n">
-        <v>93.46500363713565</v>
+        <v>98.66491975405155</v>
       </c>
       <c r="K2" t="n">
-        <v>92.88430300753592</v>
+        <v>98.14715773083675</v>
       </c>
       <c r="L2" t="n">
-        <v>92.45329682116386</v>
+        <v>97.90494105733396</v>
       </c>
     </row>
     <row r="3">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.8258527239078</v>
+        <v>117.6618425981262</v>
       </c>
       <c r="C3" t="n">
-        <v>102.5762694644021</v>
+        <v>107.5053940240677</v>
       </c>
       <c r="D3" t="n">
-        <v>99.61759914153009</v>
+        <v>104.5430018203052</v>
       </c>
       <c r="E3" t="n">
-        <v>97.9128014818712</v>
+        <v>102.815052640491</v>
       </c>
       <c r="F3" t="n">
-        <v>96.60234558650352</v>
+        <v>101.5155929757197</v>
       </c>
       <c r="G3" t="n">
-        <v>95.63172562546002</v>
+        <v>100.566640731433</v>
       </c>
       <c r="H3" t="n">
-        <v>94.81559398952174</v>
+        <v>99.75374387003292</v>
       </c>
       <c r="I3" t="n">
-        <v>94.14904492987</v>
+        <v>99.25751631035821</v>
       </c>
       <c r="J3" t="n">
-        <v>93.62873830850842</v>
+        <v>99.39950092735265</v>
       </c>
       <c r="K3" t="n">
-        <v>93.06476696559264</v>
+        <v>98.8769542658853</v>
       </c>
       <c r="L3" t="n">
-        <v>92.61568578646722</v>
+        <v>98.47363577983592</v>
       </c>
     </row>
     <row r="4">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.6372204717204</v>
+        <v>117.9301018750046</v>
       </c>
       <c r="C4" t="n">
-        <v>102.4894214315019</v>
+        <v>107.8002700021487</v>
       </c>
       <c r="D4" t="n">
-        <v>99.57481052970215</v>
+        <v>104.8378777983862</v>
       </c>
       <c r="E4" t="n">
-        <v>97.87508153988547</v>
+        <v>103.109928618572</v>
       </c>
       <c r="F4" t="n">
-        <v>96.55103286901462</v>
+        <v>101.8104689538007</v>
       </c>
       <c r="G4" t="n">
-        <v>95.58568166034036</v>
+        <v>100.8615167095139</v>
       </c>
       <c r="H4" t="n">
-        <v>94.77552904487698</v>
+        <v>100.0486198481139</v>
       </c>
       <c r="I4" t="n">
-        <v>94.12434238531341</v>
+        <v>99.39887164166038</v>
       </c>
       <c r="J4" t="n">
-        <v>93.58590895508334</v>
+        <v>98.85180856044472</v>
       </c>
       <c r="K4" t="n">
-        <v>93.02465293224526</v>
+        <v>98.29915137745472</v>
       </c>
       <c r="L4" t="n">
-        <v>92.57721224981884</v>
+        <v>97.84861176740023</v>
       </c>
     </row>
     <row r="5">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.4590109741401</v>
+        <v>117.6993523645158</v>
       </c>
       <c r="C5" t="n">
-        <v>102.3345958760481</v>
+        <v>107.5429037904572</v>
       </c>
       <c r="D5" t="n">
-        <v>99.3917045430247</v>
+        <v>104.5792098097497</v>
       </c>
       <c r="E5" t="n">
-        <v>97.69588295460886</v>
+        <v>102.8516879004201</v>
       </c>
       <c r="F5" t="n">
-        <v>96.36429047979659</v>
+        <v>101.5524543639719</v>
       </c>
       <c r="G5" t="n">
-        <v>95.40791786850754</v>
+        <v>100.6041504978225</v>
       </c>
       <c r="H5" t="n">
-        <v>94.59516175502941</v>
+        <v>99.79125363642247</v>
       </c>
       <c r="I5" t="n">
-        <v>93.93440551261206</v>
+        <v>99.14113331045547</v>
       </c>
       <c r="J5" t="n">
-        <v>93.41966509189587</v>
+        <v>98.59903805798535</v>
       </c>
       <c r="K5" t="n">
-        <v>92.85399114623863</v>
+        <v>98.08844959302319</v>
       </c>
       <c r="L5" t="n">
-        <v>92.39746039233368</v>
+        <v>97.8203647541699</v>
       </c>
     </row>
     <row r="6">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.5983198874554</v>
+        <v>117.6620392446475</v>
       </c>
       <c r="C6" t="n">
-        <v>102.2996121762643</v>
+        <v>107.5055906705889</v>
       </c>
       <c r="D6" t="n">
-        <v>99.35307760876505</v>
+        <v>104.5431984668265</v>
       </c>
       <c r="E6" t="n">
-        <v>97.69948905798492</v>
+        <v>102.8152492870123</v>
       </c>
       <c r="F6" t="n">
-        <v>96.39544328068098</v>
+        <v>101.515789622241</v>
       </c>
       <c r="G6" t="n">
-        <v>95.45228200500355</v>
+        <v>100.5668373779542</v>
       </c>
       <c r="H6" t="n">
-        <v>94.66127218333799</v>
+        <v>99.7539405165542</v>
       </c>
       <c r="I6" t="n">
-        <v>94.0495227797212</v>
+        <v>99.10419231010067</v>
       </c>
       <c r="J6" t="n">
-        <v>93.52131727116796</v>
+        <v>98.55712922888503</v>
       </c>
       <c r="K6" t="n">
-        <v>92.95321300910358</v>
+        <v>98.18175971549933</v>
       </c>
       <c r="L6" t="n">
-        <v>92.50568912870125</v>
+        <v>98.436018220223</v>
       </c>
     </row>
     <row r="7">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.5267814284267</v>
+        <v>117.6973335758085</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4402491776015</v>
+        <v>107.5408850017499</v>
       </c>
       <c r="D7" t="n">
-        <v>99.45655559480436</v>
+        <v>104.5784927979875</v>
       </c>
       <c r="E7" t="n">
-        <v>97.67788732294422</v>
+        <v>102.8505436181733</v>
       </c>
       <c r="F7" t="n">
-        <v>96.38004285394751</v>
+        <v>101.5510839534019</v>
       </c>
       <c r="G7" t="n">
-        <v>95.47000899642923</v>
+        <v>100.6021317091152</v>
       </c>
       <c r="H7" t="n">
-        <v>94.64536214375758</v>
+        <v>99.78923484771516</v>
       </c>
       <c r="I7" t="n">
-        <v>94.0058215930452</v>
+        <v>99.13948664126164</v>
       </c>
       <c r="J7" t="n">
-        <v>93.46497558640623</v>
+        <v>98.60172944382937</v>
       </c>
       <c r="K7" t="n">
-        <v>92.90968812478991</v>
+        <v>98.16688984591779</v>
       </c>
       <c r="L7" t="n">
-        <v>92.46186775318145</v>
+        <v>98.10956095982544</v>
       </c>
     </row>
     <row r="8">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.4423236562729</v>
+        <v>117.6666863050063</v>
       </c>
       <c r="C8" t="n">
-        <v>102.3638805542002</v>
+        <v>107.5368544321503</v>
       </c>
       <c r="D8" t="n">
-        <v>99.40818313755582</v>
+        <v>104.5744622283878</v>
       </c>
       <c r="E8" t="n">
-        <v>97.68565619190731</v>
+        <v>102.8465130485737</v>
       </c>
       <c r="F8" t="n">
-        <v>96.36426598671925</v>
+        <v>101.5470533838023</v>
       </c>
       <c r="G8" t="n">
-        <v>95.4288358850354</v>
+        <v>100.5981011395156</v>
       </c>
       <c r="H8" t="n">
-        <v>94.6432711957052</v>
+        <v>99.78520427811553</v>
       </c>
       <c r="I8" t="n">
-        <v>94.00266597674656</v>
+        <v>99.13545607166201</v>
       </c>
       <c r="J8" t="n">
-        <v>93.43526239890065</v>
+        <v>98.70061602343927</v>
       </c>
       <c r="K8" t="n">
-        <v>92.87121759269417</v>
+        <v>98.17368077914026</v>
       </c>
       <c r="L8" t="n">
-        <v>92.41383619982599</v>
+        <v>98.02016382333801</v>
       </c>
     </row>
     <row r="9">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.4480241125459</v>
+        <v>117.6239846601522</v>
       </c>
       <c r="C9" t="n">
-        <v>102.2563827984025</v>
+        <v>107.4675360860937</v>
       </c>
       <c r="D9" t="n">
-        <v>99.35965175667775</v>
+        <v>104.5051438823312</v>
       </c>
       <c r="E9" t="n">
-        <v>97.63958673684169</v>
+        <v>102.777194702517</v>
       </c>
       <c r="F9" t="n">
-        <v>96.3248020515436</v>
+        <v>101.4777350377457</v>
       </c>
       <c r="G9" t="n">
-        <v>95.4252096780385</v>
+        <v>100.528782793459</v>
       </c>
       <c r="H9" t="n">
-        <v>94.58344302398271</v>
+        <v>99.71588593205892</v>
       </c>
       <c r="I9" t="n">
-        <v>93.93612582456016</v>
+        <v>99.06613772560539</v>
       </c>
       <c r="J9" t="n">
-        <v>93.40663089492702</v>
+        <v>98.51907464438975</v>
       </c>
       <c r="K9" t="n">
-        <v>92.83970954592664</v>
+        <v>98.08630854908515</v>
       </c>
       <c r="L9" t="n">
-        <v>92.39225247899306</v>
+        <v>98.03249510918725</v>
       </c>
     </row>
     <row r="10">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.6262911304916</v>
+        <v>117.8799259038175</v>
       </c>
       <c r="C10" t="n">
-        <v>102.4816608612922</v>
+        <v>107.7234773297589</v>
       </c>
       <c r="D10" t="n">
-        <v>99.51419464501288</v>
+        <v>104.7610851259965</v>
       </c>
       <c r="E10" t="n">
-        <v>97.83547875027195</v>
+        <v>103.0331359461823</v>
       </c>
       <c r="F10" t="n">
-        <v>96.49469888152409</v>
+        <v>101.733676281411</v>
       </c>
       <c r="G10" t="n">
-        <v>95.56571051429202</v>
+        <v>100.7847240371242</v>
       </c>
       <c r="H10" t="n">
-        <v>94.75943627442334</v>
+        <v>48.43462756597749</v>
       </c>
       <c r="I10" t="n">
-        <v>94.1125487421057</v>
+        <v>48.43462264651953</v>
       </c>
       <c r="J10" t="n">
-        <v>48.43452437481499</v>
+        <v>98.77468780912615</v>
       </c>
       <c r="K10" t="n">
-        <v>92.99395645291993</v>
+        <v>98.24088698410705</v>
       </c>
       <c r="L10" t="n">
-        <v>48.43462272539259</v>
+        <v>97.93464498305457</v>
       </c>
     </row>
     <row r="11">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.5095537200586</v>
+        <v>117.6828109094581</v>
       </c>
       <c r="C11" t="n">
-        <v>102.3221964764489</v>
+        <v>107.5263623353995</v>
       </c>
       <c r="D11" t="n">
-        <v>99.35654407012761</v>
+        <v>104.5639701316371</v>
       </c>
       <c r="E11" t="n">
-        <v>97.64718156292744</v>
+        <v>102.8360209518229</v>
       </c>
       <c r="F11" t="n">
-        <v>96.34650579972666</v>
+        <v>101.5365612870515</v>
       </c>
       <c r="G11" t="n">
-        <v>95.39389750330882</v>
+        <v>100.5876090427648</v>
       </c>
       <c r="H11" t="n">
-        <v>94.57431141241779</v>
+        <v>99.77471218136479</v>
       </c>
       <c r="I11" t="n">
-        <v>93.90949456204925</v>
+        <v>99.12496397491125</v>
       </c>
       <c r="J11" t="n">
-        <v>93.39389836414121</v>
+        <v>98.57790089369561</v>
       </c>
       <c r="K11" t="n">
-        <v>92.82626561110639</v>
+        <v>98.0252437107056</v>
       </c>
       <c r="L11" t="n">
-        <v>92.37189735783778</v>
+        <v>97.78009578935807</v>
       </c>
     </row>
     <row r="12">
@@ -1582,37 +1582,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.6918553528117</v>
+        <v>117.6574090397673</v>
       </c>
       <c r="C12" t="n">
-        <v>102.5421366805422</v>
+        <v>107.5009604657087</v>
       </c>
       <c r="D12" t="n">
-        <v>99.56057028341354</v>
+        <v>104.5385682619462</v>
       </c>
       <c r="E12" t="n">
-        <v>97.85868015531214</v>
+        <v>102.8106190821321</v>
       </c>
       <c r="F12" t="n">
-        <v>96.5284621672179</v>
+        <v>101.5111594173607</v>
       </c>
       <c r="G12" t="n">
-        <v>95.60276957068498</v>
+        <v>100.562207173074</v>
       </c>
       <c r="H12" t="n">
-        <v>94.78439484282583</v>
+        <v>99.74887814202577</v>
       </c>
       <c r="I12" t="n">
-        <v>94.10849544432497</v>
+        <v>99.13793705738178</v>
       </c>
       <c r="J12" t="n">
-        <v>93.58228105968495</v>
+        <v>98.99211469740543</v>
       </c>
       <c r="K12" t="n">
-        <v>93.02389561017341</v>
+        <v>98.44641017560939</v>
       </c>
       <c r="L12" t="n">
-        <v>92.56640338086889</v>
+        <v>98.89684041205723</v>
       </c>
     </row>
     <row r="13">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.4839922136987</v>
+        <v>117.7163379992035</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3096079246707</v>
+        <v>107.5598894251449</v>
       </c>
       <c r="D13" t="n">
-        <v>99.38431804832753</v>
+        <v>104.5974972213824</v>
       </c>
       <c r="E13" t="n">
-        <v>97.65588823696085</v>
+        <v>102.8695480415683</v>
       </c>
       <c r="F13" t="n">
-        <v>96.32503430523811</v>
+        <v>101.5700883767969</v>
       </c>
       <c r="G13" t="n">
-        <v>95.38642893931942</v>
+        <v>100.6206150103986</v>
       </c>
       <c r="H13" t="n">
-        <v>94.59094890126904</v>
+        <v>99.80823927111017</v>
       </c>
       <c r="I13" t="n">
-        <v>93.95749160465644</v>
+        <v>99.15811894514317</v>
       </c>
       <c r="J13" t="n">
-        <v>93.41243476170133</v>
+        <v>98.61142798344098</v>
       </c>
       <c r="K13" t="n">
-        <v>92.83424171319658</v>
+        <v>98.07739578816791</v>
       </c>
       <c r="L13" t="n">
-        <v>92.39605556852739</v>
+        <v>97.76052544897095</v>
       </c>
     </row>
     <row r="14">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.0721190063458</v>
+        <v>117.6523021391765</v>
       </c>
       <c r="C14" t="n">
-        <v>102.6706094464795</v>
+        <v>107.4958535651179</v>
       </c>
       <c r="D14" t="n">
-        <v>99.56886391983164</v>
+        <v>104.5334613613554</v>
       </c>
       <c r="E14" t="n">
-        <v>97.79211458960781</v>
+        <v>102.8055121815413</v>
       </c>
       <c r="F14" t="n">
-        <v>96.41800331854722</v>
+        <v>101.5060525167699</v>
       </c>
       <c r="G14" t="n">
-        <v>95.47002586904009</v>
+        <v>100.5571002724832</v>
       </c>
       <c r="H14" t="n">
-        <v>94.66757432382444</v>
+        <v>99.74420341108315</v>
       </c>
       <c r="I14" t="n">
-        <v>94.04598783326139</v>
+        <v>99.21303397346875</v>
       </c>
       <c r="J14" t="n">
-        <v>93.45921258656469</v>
+        <v>98.78647036486826</v>
       </c>
       <c r="K14" t="n">
-        <v>92.86179100358078</v>
+        <v>98.75939994759395</v>
       </c>
       <c r="L14" t="n">
-        <v>92.42580245445198</v>
+        <v>98.40135907689769</v>
       </c>
     </row>
     <row r="15">
@@ -1702,37 +1702,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.6647033726151</v>
+        <v>117.8135543139728</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4158028343664</v>
+        <v>107.6571057399143</v>
       </c>
       <c r="D15" t="n">
-        <v>99.47944421063951</v>
+        <v>104.6947135361518</v>
       </c>
       <c r="E15" t="n">
-        <v>97.74486250259905</v>
+        <v>102.9667643563376</v>
       </c>
       <c r="F15" t="n">
-        <v>96.41915091501485</v>
+        <v>101.6673046915663</v>
       </c>
       <c r="G15" t="n">
-        <v>95.49244966765352</v>
+        <v>100.7183524472796</v>
       </c>
       <c r="H15" t="n">
-        <v>94.66396590069593</v>
+        <v>99.90545558587952</v>
       </c>
       <c r="I15" t="n">
-        <v>94.00277356326724</v>
+        <v>99.25570737942598</v>
       </c>
       <c r="J15" t="n">
-        <v>93.48823124298717</v>
+        <v>98.70864429821033</v>
       </c>
       <c r="K15" t="n">
-        <v>92.90614273271015</v>
+        <v>98.15598711522031</v>
       </c>
       <c r="L15" t="n">
-        <v>92.46131371198013</v>
+        <v>97.79091973350884</v>
       </c>
     </row>
     <row r="16">
@@ -1742,37 +1742,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.5173819730458</v>
+        <v>117.7256522405524</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3020414405229</v>
+        <v>107.5692036664938</v>
       </c>
       <c r="D16" t="n">
-        <v>99.37589797602624</v>
+        <v>104.6068114627314</v>
       </c>
       <c r="E16" t="n">
-        <v>97.67460346104497</v>
+        <v>102.8788622829172</v>
       </c>
       <c r="F16" t="n">
-        <v>96.38058921417866</v>
+        <v>101.5794026181459</v>
       </c>
       <c r="G16" t="n">
-        <v>95.42200070539491</v>
+        <v>100.6304503738591</v>
       </c>
       <c r="H16" t="n">
-        <v>94.57192887865833</v>
+        <v>99.8175535124591</v>
       </c>
       <c r="I16" t="n">
-        <v>93.94457863455597</v>
+        <v>99.16780530600556</v>
       </c>
       <c r="J16" t="n">
-        <v>93.40809400702761</v>
+        <v>98.62074222478994</v>
       </c>
       <c r="K16" t="n">
-        <v>92.83480289741996</v>
+        <v>98.08835440656298</v>
       </c>
       <c r="L16" t="n">
-        <v>92.40748781575456</v>
+        <v>97.75261216875757</v>
       </c>
     </row>
   </sheetData>
@@ -1858,37 +1858,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.4978598243769</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C2" t="n">
-        <v>108.2421488047085</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D2" t="n">
-        <v>105.3465514169201</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E2" t="n">
-        <v>103.6599181240149</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F2" t="n">
-        <v>102.2950857983319</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3581553913784</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H2" t="n">
-        <v>100.5788743503014</v>
+        <v>105.7612898650637</v>
       </c>
       <c r="I2" t="n">
-        <v>99.93495099856153</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J2" t="n">
-        <v>99.37154351739515</v>
+        <v>104.571459634311</v>
       </c>
       <c r="K2" t="n">
-        <v>98.79084288779543</v>
+        <v>104.0536976110962</v>
       </c>
       <c r="L2" t="n">
-        <v>98.35983670142339</v>
+        <v>103.8114809375934</v>
       </c>
     </row>
     <row r="3">
@@ -1898,37 +1898,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.8351271395579</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C3" t="n">
-        <v>108.5855438800523</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D3" t="n">
-        <v>105.6268735571803</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E3" t="n">
-        <v>103.9220758975214</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F3" t="n">
-        <v>102.6116200021537</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G3" t="n">
-        <v>101.6410000411102</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8248684051719</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I3" t="n">
-        <v>100.1583193455202</v>
+        <v>105.2667907260084</v>
       </c>
       <c r="J3" t="n">
-        <v>99.63801272415856</v>
+        <v>105.4087753430028</v>
       </c>
       <c r="K3" t="n">
-        <v>99.07404138124279</v>
+        <v>104.8862286815355</v>
       </c>
       <c r="L3" t="n">
-        <v>98.62496020211736</v>
+        <v>104.4829101954861</v>
       </c>
     </row>
     <row r="4">
@@ -1938,37 +1938,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.3516189092896</v>
+        <v>123.6445003125738</v>
       </c>
       <c r="C4" t="n">
-        <v>108.2038198690711</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D4" t="n">
-        <v>105.2892089672713</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E4" t="n">
-        <v>103.5894799774547</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2654313065838</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G4" t="n">
-        <v>101.3000800979095</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H4" t="n">
-        <v>100.4899274824461</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I4" t="n">
-        <v>99.83874082288256</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J4" t="n">
-        <v>99.30030739265248</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K4" t="n">
-        <v>98.7390513698144</v>
+        <v>104.0135498150239</v>
       </c>
       <c r="L4" t="n">
-        <v>98.29161068738799</v>
+        <v>103.5630102049694</v>
       </c>
     </row>
     <row r="5">
@@ -1978,37 +1978,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118.4307756234007</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C5" t="n">
-        <v>108.3063605253086</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D5" t="n">
-        <v>105.3634691922853</v>
+        <v>110.5509744590103</v>
       </c>
       <c r="E5" t="n">
-        <v>103.6676476038695</v>
+        <v>108.8234525496808</v>
       </c>
       <c r="F5" t="n">
-        <v>102.3360551290572</v>
+        <v>107.5242190132325</v>
       </c>
       <c r="G5" t="n">
-        <v>101.3796825177681</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H5" t="n">
-        <v>100.56692640429</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I5" t="n">
-        <v>99.90617016187267</v>
+        <v>105.1128979597161</v>
       </c>
       <c r="J5" t="n">
-        <v>99.39142974115649</v>
+        <v>104.570802707246</v>
       </c>
       <c r="K5" t="n">
-        <v>98.82575579549923</v>
+        <v>104.0602142422838</v>
       </c>
       <c r="L5" t="n">
-        <v>98.36922504159431</v>
+        <v>103.7921294034305</v>
       </c>
     </row>
     <row r="6">
@@ -2018,37 +2018,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.6073976565842</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C6" t="n">
-        <v>108.3086899453932</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D6" t="n">
-        <v>105.3621553778939</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E6" t="n">
-        <v>103.7085668271138</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F6" t="n">
-        <v>102.4045210498099</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G6" t="n">
-        <v>101.4613597741324</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H6" t="n">
-        <v>100.6703499524669</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I6" t="n">
-        <v>100.0586005488501</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J6" t="n">
-        <v>99.53039504029682</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K6" t="n">
-        <v>98.96229077823244</v>
+        <v>104.1908374846282</v>
       </c>
       <c r="L6" t="n">
-        <v>98.51476689783011</v>
+        <v>104.4450959893519</v>
       </c>
     </row>
     <row r="7">
@@ -2058,37 +2058,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.5005648663946</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C7" t="n">
-        <v>108.4140326155694</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D7" t="n">
-        <v>105.4303390327723</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E7" t="n">
-        <v>103.6516707609121</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F7" t="n">
-        <v>102.3538262919154</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G7" t="n">
-        <v>101.4437924343971</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6191455817255</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I7" t="n">
-        <v>99.97960503101311</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J7" t="n">
-        <v>99.43875902437415</v>
+        <v>104.5755128817973</v>
       </c>
       <c r="K7" t="n">
-        <v>98.88347156275779</v>
+        <v>104.1406732838857</v>
       </c>
       <c r="L7" t="n">
-        <v>98.43565119114939</v>
+        <v>104.0833443977933</v>
       </c>
     </row>
     <row r="8">
@@ -2098,37 +2098,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.4201376638404</v>
+        <v>123.6445003125738</v>
       </c>
       <c r="C8" t="n">
-        <v>108.3416945617678</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D8" t="n">
-        <v>105.3859971451234</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E8" t="n">
-        <v>103.6634701994749</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F8" t="n">
-        <v>102.3420799942868</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G8" t="n">
-        <v>101.4066498926029</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H8" t="n">
-        <v>100.6210852032727</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I8" t="n">
-        <v>99.98047998431409</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J8" t="n">
-        <v>99.41307640646815</v>
+        <v>104.6784300310068</v>
       </c>
       <c r="K8" t="n">
-        <v>98.8490316002617</v>
+        <v>104.1514947867078</v>
       </c>
       <c r="L8" t="n">
-        <v>98.39165020739352</v>
+        <v>103.9979778309056</v>
       </c>
     </row>
     <row r="9">
@@ -2138,37 +2138,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.4951564661701</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C9" t="n">
-        <v>108.3035151520267</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D9" t="n">
-        <v>105.4067841103019</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6867190904658</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F9" t="n">
-        <v>102.3719344051678</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G9" t="n">
-        <v>101.4723420316626</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H9" t="n">
-        <v>100.6305753776069</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I9" t="n">
-        <v>99.98325817818433</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J9" t="n">
-        <v>99.45376324855118</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K9" t="n">
-        <v>98.8868418995508</v>
+        <v>104.1334409027093</v>
       </c>
       <c r="L9" t="n">
-        <v>98.43938483261722</v>
+        <v>104.0796274628114</v>
       </c>
     </row>
     <row r="10">
@@ -2178,37 +2178,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118.4174822404505</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C10" t="n">
-        <v>108.272851971251</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D10" t="n">
-        <v>105.3053857549718</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E10" t="n">
-        <v>103.6266698602308</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F10" t="n">
-        <v>102.2858899914829</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G10" t="n">
-        <v>101.3569016242509</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H10" t="n">
-        <v>100.5506273843822</v>
+        <v>54.22581867593635</v>
       </c>
       <c r="I10" t="n">
-        <v>99.90373985206458</v>
+        <v>54.22581375647839</v>
       </c>
       <c r="J10" t="n">
-        <v>54.22571548477386</v>
+        <v>104.565878919085</v>
       </c>
       <c r="K10" t="n">
-        <v>98.78514756287879</v>
+        <v>104.0320780940659</v>
       </c>
       <c r="L10" t="n">
-        <v>54.22581383535147</v>
+        <v>103.7258360930134</v>
       </c>
     </row>
     <row r="11">
@@ -2218,37 +2218,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.4978598243769</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C11" t="n">
-        <v>108.3105025807672</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D11" t="n">
-        <v>105.3448501744459</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E11" t="n">
-        <v>103.6354876672457</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F11" t="n">
-        <v>102.334811904045</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3822036076271</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H11" t="n">
-        <v>100.5626175167361</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I11" t="n">
-        <v>99.89780066636754</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J11" t="n">
-        <v>99.38220446845949</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K11" t="n">
-        <v>98.81457171542468</v>
+        <v>104.0135498150239</v>
       </c>
       <c r="L11" t="n">
-        <v>98.36020346215605</v>
+        <v>103.7684018936764</v>
       </c>
     </row>
     <row r="12">
@@ -2258,37 +2258,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.7055633268209</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C12" t="n">
-        <v>108.5558446545513</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D12" t="n">
-        <v>105.5742782574227</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E12" t="n">
-        <v>103.8723881293213</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F12" t="n">
-        <v>102.542170141227</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G12" t="n">
-        <v>101.6164775446941</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H12" t="n">
-        <v>100.798102816835</v>
+        <v>105.7625861160349</v>
       </c>
       <c r="I12" t="n">
-        <v>100.1222034183341</v>
+        <v>105.1516450313909</v>
       </c>
       <c r="J12" t="n">
-        <v>99.5959890336941</v>
+        <v>105.0058226714146</v>
       </c>
       <c r="K12" t="n">
-        <v>99.03760358418253</v>
+        <v>104.4601181496185</v>
       </c>
       <c r="L12" t="n">
-        <v>98.58011135487803</v>
+        <v>104.9105483860664</v>
       </c>
     </row>
     <row r="13">
@@ -2298,37 +2298,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4387712282717</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C13" t="n">
-        <v>108.2643869392436</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D13" t="n">
-        <v>105.3390970629004</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E13" t="n">
-        <v>103.6106672515338</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F13" t="n">
-        <v>102.279813319811</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G13" t="n">
-        <v>101.3412079538924</v>
+        <v>106.5753940249715</v>
       </c>
       <c r="H13" t="n">
-        <v>100.545727915842</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I13" t="n">
-        <v>99.91227061922936</v>
+        <v>105.1128979597161</v>
       </c>
       <c r="J13" t="n">
-        <v>99.36721377627424</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K13" t="n">
-        <v>98.78902072776951</v>
+        <v>104.0321748027408</v>
       </c>
       <c r="L13" t="n">
-        <v>98.35083458310031</v>
+        <v>103.7153044635439</v>
       </c>
     </row>
     <row r="14">
@@ -2338,37 +2338,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.0909338809457</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C14" t="n">
-        <v>108.6894243210794</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D14" t="n">
-        <v>105.5876787944316</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E14" t="n">
-        <v>103.8109294642077</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F14" t="n">
-        <v>102.4368181931471</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G14" t="n">
-        <v>101.48884074364</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H14" t="n">
-        <v>100.6863891984244</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0648027078613</v>
+        <v>105.2318488480687</v>
       </c>
       <c r="J14" t="n">
-        <v>99.4780274611646</v>
+        <v>104.8052852394682</v>
       </c>
       <c r="K14" t="n">
-        <v>98.88060587818069</v>
+        <v>104.7782148221939</v>
       </c>
       <c r="L14" t="n">
-        <v>98.44461732905191</v>
+        <v>104.4201739514976</v>
       </c>
     </row>
     <row r="15">
@@ -2378,37 +2378,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.5222660724187</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C15" t="n">
-        <v>108.27336553417</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D15" t="n">
-        <v>105.3370069104431</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6024252024026</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F15" t="n">
-        <v>102.2767136148184</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G15" t="n">
-        <v>101.3500123674571</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H15" t="n">
-        <v>100.5215286004995</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I15" t="n">
-        <v>99.86033626307079</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J15" t="n">
-        <v>99.34579394279075</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K15" t="n">
-        <v>98.76370543251372</v>
+        <v>104.0135498150239</v>
       </c>
       <c r="L15" t="n">
-        <v>98.31887641178369</v>
+        <v>103.6484824333124</v>
       </c>
     </row>
     <row r="16">
@@ -2418,37 +2418,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4628467462697</v>
+        <v>123.6711170137764</v>
       </c>
       <c r="C16" t="n">
-        <v>108.2475062137469</v>
+        <v>113.5146684397178</v>
       </c>
       <c r="D16" t="n">
-        <v>105.3213627492502</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E16" t="n">
-        <v>103.6200682342689</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3260539874026</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G16" t="n">
-        <v>101.3674654786189</v>
+        <v>106.5759151470831</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5173936518823</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I16" t="n">
-        <v>99.89004340777994</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J16" t="n">
-        <v>99.3535587802516</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K16" t="n">
-        <v>98.78026767064395</v>
+        <v>104.033819179787</v>
       </c>
       <c r="L16" t="n">
-        <v>98.35295258897855</v>
+        <v>103.6980769419816</v>
       </c>
     </row>
   </sheetData>

--- a/quality_result.xlsx
+++ b/quality_result.xlsx
@@ -524,19 +524,19 @@
         <v>0.09448330857870649</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1139771048046652</v>
+        <v>0.1139317528165474</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1323182046659637</v>
+        <v>0.1323295426629932</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1498996587262894</v>
+        <v>0.1499336727173778</v>
       </c>
       <c r="K2" t="n">
-        <v>0.16887946575358</v>
+        <v>0.168830334433119</v>
       </c>
       <c r="L2" t="n">
-        <v>0.178565894549069</v>
+        <v>0.1786301431989025</v>
       </c>
     </row>
     <row r="3">
@@ -546,37 +546,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001844314183456351</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01911964232398704</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03781977875788464</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05630071391587962</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07593812477087798</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09448330857870649</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1139317528165474</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1277225365366954</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1236144022796933</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1394195701387393</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1529873732506415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +586,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001855652180485795</v>
+        <v>0.003870036319383817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01911964232398704</v>
+        <v>0.03722642358001035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03781977875788464</v>
+        <v>0.07481188373261979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05630071391587962</v>
+        <v>0.1125938691670729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07593812477087798</v>
+        <v>0.1502775919606043</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09448330857870649</v>
+        <v>0.1887322985521378</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1139317528165474</v>
+        <v>0.2241673186014959</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1323182046659637</v>
+        <v>0.2608230629976908</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1500810666787605</v>
+        <v>0.3005325079271496</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1704478886759865</v>
+        <v>0.3344633537039347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1890799971277074</v>
+        <v>0.373167496230116</v>
       </c>
     </row>
     <row r="5">
@@ -632,13 +632,13 @@
         <v>0.01911964232398704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03783111675491407</v>
+        <v>0.03781977875788464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05631205191290906</v>
+        <v>0.05630071391587962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07594946276790743</v>
+        <v>0.07593812477087798</v>
       </c>
       <c r="G5" t="n">
         <v>0.09448330857870649</v>
@@ -650,13 +650,13 @@
         <v>0.1323295426629932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1499223347203483</v>
+        <v>0.15009240467579</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1686262504865891</v>
+        <v>0.1686375884836185</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1793633336734732</v>
+        <v>0.1792612917002082</v>
       </c>
     </row>
     <row r="6">
@@ -666,37 +666,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001844314183456351</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01911964232398704</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03781977875788464</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05630071391587962</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07593812477087798</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09448330857870649</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1139317528165474</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1323182046659637</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1500810666787605</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.163629973128947</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.154325256900116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.001844314183456351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01911964232398704</v>
+        <v>0.01913098032101649</v>
       </c>
       <c r="D7" t="n">
         <v>0.03781977875788464</v>
@@ -727,16 +727,16 @@
         <v>0.1139317528165474</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1323182046659637</v>
+        <v>0.1322917493395617</v>
       </c>
       <c r="J7" t="n">
         <v>0.1497598234295929</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1655309772975506</v>
+        <v>0.1654364939889719</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1677305487212629</v>
+        <v>0.1675340234394192</v>
       </c>
     </row>
     <row r="8">
@@ -749,7 +749,7 @@
         <v>0.001855652180485795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01911964232398704</v>
+        <v>0.01913098032101649</v>
       </c>
       <c r="D8" t="n">
         <v>0.03781977875788464</v>
@@ -770,13 +770,13 @@
         <v>0.1323182046659637</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1462526030151513</v>
+        <v>0.1463584243207595</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1651190300721475</v>
+        <v>0.1651870580543241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1710601405155765</v>
+        <v>0.1708825118954486</v>
       </c>
     </row>
     <row r="9">
@@ -813,10 +813,10 @@
         <v>0.1500810666787605</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1658068685586004</v>
+        <v>0.1660033938404442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1678741633503025</v>
+        <v>0.1677985767034396</v>
       </c>
     </row>
     <row r="10">
@@ -838,25 +838,25 @@
         <v>0.05630071391587962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07593812477087798</v>
+        <v>0.07594946276790743</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09448330857870649</v>
+        <v>16231.70793319652</v>
       </c>
       <c r="H10" t="n">
-        <v>16231.72738164076</v>
+        <v>0.1139430908135769</v>
       </c>
       <c r="I10" t="n">
-        <v>16231.74576809261</v>
+        <v>0.1323182046659637</v>
       </c>
       <c r="J10" t="n">
-        <v>0.15009240467579</v>
+        <v>0.1501037426728194</v>
       </c>
       <c r="K10" t="n">
-        <v>0.169722256866102</v>
+        <v>16231.78326662812</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1821222462839715</v>
+        <v>16231.7956741762</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         <v>0.1704478886759865</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1803459600826918</v>
+        <v>0.1802514767741131</v>
       </c>
     </row>
     <row r="12">
@@ -927,16 +927,16 @@
         <v>0.1139430908135769</v>
       </c>
       <c r="I12" t="n">
-        <v>0.131154170304274</v>
+        <v>0.1323295426629932</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1356326791309047</v>
+        <v>0.1500810666787605</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1537923710397321</v>
+        <v>0.1540418069743799</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1386410276760507</v>
+        <v>0.1384482817265502</v>
       </c>
     </row>
     <row r="13">
@@ -973,10 +973,10 @@
         <v>0.1500810666787605</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1697184775337589</v>
+        <v>0.1697109188690726</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1825644281681198</v>
+        <v>0.1824964001859432</v>
       </c>
     </row>
     <row r="14">
@@ -1007,16 +1007,16 @@
         <v>0.1139317528165474</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1287542942663749</v>
+        <v>0.1320687687313159</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1420424267848842</v>
+        <v>0.1420348681201979</v>
       </c>
       <c r="K14" t="n">
-        <v>0.142930569885524</v>
+        <v>0.1434521177488785</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1552134000007559</v>
+        <v>0.1558407691697185</v>
       </c>
     </row>
     <row r="15">
@@ -1056,7 +1056,7 @@
         <v>0.1704478886759865</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1853951480931379</v>
+        <v>0.1855425420545206</v>
       </c>
     </row>
     <row r="16">
@@ -1093,10 +1093,10 @@
         <v>0.1500810666787605</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1696542288839254</v>
+        <v>0.1705499306492515</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1832900599780043</v>
+        <v>0.1833769846218967</v>
       </c>
     </row>
   </sheetData>
@@ -1200,19 +1200,19 @@
         <v>100.6693752668236</v>
       </c>
       <c r="H2" t="n">
-        <v>99.85474998480416</v>
+        <v>99.85647840542357</v>
       </c>
       <c r="I2" t="n">
-        <v>99.20673019897004</v>
+        <v>99.20635807945658</v>
       </c>
       <c r="J2" t="n">
-        <v>98.66491975405155</v>
+        <v>98.66393440071346</v>
       </c>
       <c r="K2" t="n">
-        <v>98.14715773083675</v>
+        <v>98.14842138747352</v>
       </c>
       <c r="L2" t="n">
-        <v>97.90494105733396</v>
+        <v>97.90337873124719</v>
       </c>
     </row>
     <row r="3">
@@ -1221,38 +1221,60 @@
           <t>Audio2</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>117.6618425981262</v>
-      </c>
-      <c r="C3" t="n">
-        <v>107.5053940240677</v>
-      </c>
-      <c r="D3" t="n">
-        <v>104.5430018203052</v>
-      </c>
-      <c r="E3" t="n">
-        <v>102.815052640491</v>
-      </c>
-      <c r="F3" t="n">
-        <v>101.5155929757197</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100.566640731433</v>
-      </c>
-      <c r="H3" t="n">
-        <v>99.75374387003292</v>
-      </c>
-      <c r="I3" t="n">
-        <v>99.25751631035821</v>
-      </c>
-      <c r="J3" t="n">
-        <v>99.39950092735265</v>
-      </c>
-      <c r="K3" t="n">
-        <v>98.8769542658853</v>
-      </c>
-      <c r="L3" t="n">
-        <v>98.47363577983592</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1262,37 +1284,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.9301018750046</v>
+        <v>114.7379172298362</v>
       </c>
       <c r="C4" t="n">
-        <v>107.8002700021487</v>
+        <v>104.9065544912582</v>
       </c>
       <c r="D4" t="n">
-        <v>104.8378777983862</v>
+        <v>101.8753617353521</v>
       </c>
       <c r="E4" t="n">
-        <v>103.109928618572</v>
+        <v>100.0999202032218</v>
       </c>
       <c r="F4" t="n">
-        <v>101.8104689538007</v>
+        <v>98.84612536436006</v>
       </c>
       <c r="G4" t="n">
-        <v>100.8615167095139</v>
+        <v>97.85660534606841</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0486198481139</v>
+        <v>97.10934466779599</v>
       </c>
       <c r="I4" t="n">
-        <v>99.39887164166038</v>
+        <v>96.4516077299519</v>
       </c>
       <c r="J4" t="n">
-        <v>98.85180856044472</v>
+        <v>95.83615308234175</v>
       </c>
       <c r="K4" t="n">
-        <v>98.29915137745472</v>
+        <v>95.3715822360107</v>
       </c>
       <c r="L4" t="n">
-        <v>97.84861176740023</v>
+        <v>94.89602955126401</v>
       </c>
     </row>
     <row r="5">
@@ -1308,13 +1330,13 @@
         <v>107.5429037904572</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5792098097497</v>
+        <v>104.5805115866948</v>
       </c>
       <c r="E5" t="n">
-        <v>102.8516879004201</v>
+        <v>102.8525624068806</v>
       </c>
       <c r="F5" t="n">
-        <v>101.5524543639719</v>
+        <v>101.5531027421092</v>
       </c>
       <c r="G5" t="n">
         <v>100.6041504978225</v>
@@ -1326,13 +1348,13 @@
         <v>99.14113331045547</v>
       </c>
       <c r="J5" t="n">
-        <v>98.59903805798535</v>
+        <v>98.5941142698244</v>
       </c>
       <c r="K5" t="n">
-        <v>98.08844959302319</v>
+        <v>98.08815759435753</v>
       </c>
       <c r="L5" t="n">
-        <v>97.8203647541699</v>
+        <v>97.82283621117379</v>
       </c>
     </row>
     <row r="6">
@@ -1341,38 +1363,60 @@
           <t>Audio5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>117.6620392446475</v>
-      </c>
-      <c r="C6" t="n">
-        <v>107.5055906705889</v>
-      </c>
-      <c r="D6" t="n">
-        <v>104.5431984668265</v>
-      </c>
-      <c r="E6" t="n">
-        <v>102.8152492870123</v>
-      </c>
-      <c r="F6" t="n">
-        <v>101.515789622241</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100.5668373779542</v>
-      </c>
-      <c r="H6" t="n">
-        <v>99.7539405165542</v>
-      </c>
-      <c r="I6" t="n">
-        <v>99.10419231010067</v>
-      </c>
-      <c r="J6" t="n">
-        <v>98.55712922888503</v>
-      </c>
-      <c r="K6" t="n">
-        <v>98.18175971549933</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98.436018220223</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1385,7 +1429,7 @@
         <v>117.6973335758085</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5408850017499</v>
+        <v>107.5383103876132</v>
       </c>
       <c r="D7" t="n">
         <v>104.5784927979875</v>
@@ -1403,16 +1447,16 @@
         <v>99.78923484771516</v>
       </c>
       <c r="I7" t="n">
-        <v>99.13948664126164</v>
+        <v>99.14035504414201</v>
       </c>
       <c r="J7" t="n">
         <v>98.60172944382937</v>
       </c>
       <c r="K7" t="n">
-        <v>98.16688984591779</v>
+        <v>98.16936946003231</v>
       </c>
       <c r="L7" t="n">
-        <v>98.10956095982544</v>
+        <v>98.11465245247463</v>
       </c>
     </row>
     <row r="8">
@@ -1425,7 +1469,7 @@
         <v>117.6666863050063</v>
       </c>
       <c r="C8" t="n">
-        <v>107.5368544321503</v>
+        <v>107.5342798180136</v>
       </c>
       <c r="D8" t="n">
         <v>104.5744622283878</v>
@@ -1446,13 +1490,13 @@
         <v>99.13545607166201</v>
       </c>
       <c r="J8" t="n">
-        <v>98.70061602343927</v>
+        <v>98.69747481502239</v>
       </c>
       <c r="K8" t="n">
-        <v>98.17368077914026</v>
+        <v>98.17189188218958</v>
       </c>
       <c r="L8" t="n">
-        <v>98.02016382333801</v>
+        <v>98.02467587446381</v>
       </c>
     </row>
     <row r="9">
@@ -1489,10 +1533,10 @@
         <v>98.51907464438975</v>
       </c>
       <c r="K9" t="n">
-        <v>98.08630854908515</v>
+        <v>98.08116405145434</v>
       </c>
       <c r="L9" t="n">
-        <v>98.03249510918725</v>
+        <v>98.03445099420715</v>
       </c>
     </row>
     <row r="10">
@@ -1514,25 +1558,25 @@
         <v>103.0331359461823</v>
       </c>
       <c r="F10" t="n">
-        <v>101.733676281411</v>
+        <v>101.7330279032736</v>
       </c>
       <c r="G10" t="n">
-        <v>100.7847240371242</v>
+        <v>48.43463276958698</v>
       </c>
       <c r="H10" t="n">
-        <v>48.43462756597749</v>
+        <v>99.97139500607605</v>
       </c>
       <c r="I10" t="n">
-        <v>48.43462264651953</v>
+        <v>99.32207896927066</v>
       </c>
       <c r="J10" t="n">
-        <v>98.77468780912615</v>
+        <v>98.77435975497946</v>
       </c>
       <c r="K10" t="n">
-        <v>98.24088698410705</v>
+        <v>48.43461261347164</v>
       </c>
       <c r="L10" t="n">
-        <v>97.93464498305457</v>
+        <v>48.43460929373313</v>
       </c>
     </row>
     <row r="11">
@@ -1572,7 +1616,7 @@
         <v>98.0252437107056</v>
       </c>
       <c r="L11" t="n">
-        <v>97.78009578935807</v>
+        <v>97.78237165581149</v>
       </c>
     </row>
     <row r="12">
@@ -1603,16 +1647,16 @@
         <v>99.74887814202577</v>
       </c>
       <c r="I12" t="n">
-        <v>99.13793705738178</v>
+        <v>99.09918998570696</v>
       </c>
       <c r="J12" t="n">
-        <v>98.99211469740543</v>
+        <v>98.55249902400476</v>
       </c>
       <c r="K12" t="n">
-        <v>98.44641017560939</v>
+        <v>98.43937205694347</v>
       </c>
       <c r="L12" t="n">
-        <v>98.89684041205723</v>
+        <v>98.90288240017716</v>
       </c>
     </row>
     <row r="13">
@@ -1649,10 +1693,10 @@
         <v>98.61142798344098</v>
       </c>
       <c r="K13" t="n">
-        <v>98.07739578816791</v>
+        <v>98.07758921197852</v>
       </c>
       <c r="L13" t="n">
-        <v>97.76052544897095</v>
+        <v>97.76214403827561</v>
       </c>
     </row>
     <row r="14">
@@ -1683,16 +1727,16 @@
         <v>99.74420341108315</v>
       </c>
       <c r="I14" t="n">
-        <v>99.21303397346875</v>
+        <v>99.10264991110512</v>
       </c>
       <c r="J14" t="n">
-        <v>98.78647036486826</v>
+        <v>98.78670147706367</v>
       </c>
       <c r="K14" t="n">
-        <v>98.75939994759395</v>
+        <v>98.74358156056888</v>
       </c>
       <c r="L14" t="n">
-        <v>98.40135907689769</v>
+        <v>98.38384037021207</v>
       </c>
     </row>
     <row r="15">
@@ -1732,7 +1776,7 @@
         <v>98.15598711522031</v>
       </c>
       <c r="L15" t="n">
-        <v>97.79091973350884</v>
+        <v>97.78746835128679</v>
       </c>
     </row>
     <row r="16">
@@ -1769,10 +1813,10 @@
         <v>98.62074222478994</v>
       </c>
       <c r="K16" t="n">
-        <v>98.08835440656298</v>
+        <v>98.06548583061891</v>
       </c>
       <c r="L16" t="n">
-        <v>97.75261216875757</v>
+        <v>97.75055303121319</v>
       </c>
     </row>
   </sheetData>
@@ -1876,19 +1920,19 @@
         <v>106.5759151470831</v>
       </c>
       <c r="H2" t="n">
-        <v>105.7612898650637</v>
+        <v>105.7630182856831</v>
       </c>
       <c r="I2" t="n">
-        <v>105.1132700792296</v>
+        <v>105.1128979597161</v>
       </c>
       <c r="J2" t="n">
-        <v>104.571459634311</v>
+        <v>104.570474280973</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0536976110962</v>
+        <v>104.054961267733</v>
       </c>
       <c r="L2" t="n">
-        <v>103.8114809375934</v>
+        <v>103.8099186115067</v>
       </c>
     </row>
     <row r="3">
@@ -1897,38 +1941,60 @@
           <t>Audio2</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>123.6711170137764</v>
-      </c>
-      <c r="C3" t="n">
-        <v>113.5146684397178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110.5522762359554</v>
-      </c>
-      <c r="E3" t="n">
-        <v>108.8243270561412</v>
-      </c>
-      <c r="F3" t="n">
-        <v>107.5248673913698</v>
-      </c>
-      <c r="G3" t="n">
-        <v>106.5759151470831</v>
-      </c>
-      <c r="H3" t="n">
-        <v>105.7630182856831</v>
-      </c>
-      <c r="I3" t="n">
-        <v>105.2667907260084</v>
-      </c>
-      <c r="J3" t="n">
-        <v>105.4087753430028</v>
-      </c>
-      <c r="K3" t="n">
-        <v>104.8862286815355</v>
-      </c>
-      <c r="L3" t="n">
-        <v>104.4829101954861</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1938,37 +2004,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.6445003125738</v>
+        <v>120.4523156674054</v>
       </c>
       <c r="C4" t="n">
-        <v>113.5146684397178</v>
+        <v>110.6209529288274</v>
       </c>
       <c r="D4" t="n">
-        <v>110.5522762359554</v>
+        <v>107.5897601729213</v>
       </c>
       <c r="E4" t="n">
-        <v>108.8243270561412</v>
+        <v>105.814318640791</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5248673913698</v>
+        <v>104.5605238019292</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5759151470831</v>
+        <v>103.5710037836376</v>
       </c>
       <c r="H4" t="n">
-        <v>105.7630182856831</v>
+        <v>102.8237431053652</v>
       </c>
       <c r="I4" t="n">
-        <v>105.1132700792296</v>
+        <v>102.166006167521</v>
       </c>
       <c r="J4" t="n">
-        <v>104.5662069980139</v>
+        <v>101.5505515199109</v>
       </c>
       <c r="K4" t="n">
-        <v>104.0135498150239</v>
+        <v>101.0859806735799</v>
       </c>
       <c r="L4" t="n">
-        <v>103.5630102049694</v>
+        <v>100.6104279888332</v>
       </c>
     </row>
     <row r="5">
@@ -1984,13 +2050,13 @@
         <v>113.5146684397178</v>
       </c>
       <c r="D5" t="n">
-        <v>110.5509744590103</v>
+        <v>110.5522762359554</v>
       </c>
       <c r="E5" t="n">
-        <v>108.8234525496808</v>
+        <v>108.8243270561412</v>
       </c>
       <c r="F5" t="n">
-        <v>107.5242190132325</v>
+        <v>107.5248673913698</v>
       </c>
       <c r="G5" t="n">
         <v>106.5759151470831</v>
@@ -2002,13 +2068,13 @@
         <v>105.1128979597161</v>
       </c>
       <c r="J5" t="n">
-        <v>104.570802707246</v>
+        <v>104.565878919085</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0602142422838</v>
+        <v>104.0599222436181</v>
       </c>
       <c r="L5" t="n">
-        <v>103.7921294034305</v>
+        <v>103.7946008604344</v>
       </c>
     </row>
     <row r="6">
@@ -2017,38 +2083,60 @@
           <t>Audio5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>123.6711170137764</v>
-      </c>
-      <c r="C6" t="n">
-        <v>113.5146684397178</v>
-      </c>
-      <c r="D6" t="n">
-        <v>110.5522762359554</v>
-      </c>
-      <c r="E6" t="n">
-        <v>108.8243270561412</v>
-      </c>
-      <c r="F6" t="n">
-        <v>107.5248673913698</v>
-      </c>
-      <c r="G6" t="n">
-        <v>106.5759151470831</v>
-      </c>
-      <c r="H6" t="n">
-        <v>105.7630182856831</v>
-      </c>
-      <c r="I6" t="n">
-        <v>105.1132700792296</v>
-      </c>
-      <c r="J6" t="n">
-        <v>104.5662069980139</v>
-      </c>
-      <c r="K6" t="n">
-        <v>104.1908374846282</v>
-      </c>
-      <c r="L6" t="n">
-        <v>104.4450959893519</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2061,7 +2149,7 @@
         <v>123.6711170137764</v>
       </c>
       <c r="C7" t="n">
-        <v>113.5146684397178</v>
+        <v>113.5120938255811</v>
       </c>
       <c r="D7" t="n">
         <v>110.5522762359554</v>
@@ -2079,16 +2167,16 @@
         <v>105.7630182856831</v>
       </c>
       <c r="I7" t="n">
-        <v>105.1132700792296</v>
+        <v>105.1141384821099</v>
       </c>
       <c r="J7" t="n">
         <v>104.5755128817973</v>
       </c>
       <c r="K7" t="n">
-        <v>104.1406732838857</v>
+        <v>104.1431528980002</v>
       </c>
       <c r="L7" t="n">
-        <v>104.0833443977933</v>
+        <v>104.0884358904425</v>
       </c>
     </row>
     <row r="8">
@@ -2101,7 +2189,7 @@
         <v>123.6445003125738</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5146684397178</v>
+        <v>113.5120938255811</v>
       </c>
       <c r="D8" t="n">
         <v>110.5522762359554</v>
@@ -2122,13 +2210,13 @@
         <v>105.1132700792296</v>
       </c>
       <c r="J8" t="n">
-        <v>104.6784300310068</v>
+        <v>104.6752888225899</v>
       </c>
       <c r="K8" t="n">
-        <v>104.1514947867078</v>
+        <v>104.1497058897571</v>
       </c>
       <c r="L8" t="n">
-        <v>103.9979778309056</v>
+        <v>104.0024898820314</v>
       </c>
     </row>
     <row r="9">
@@ -2165,10 +2253,10 @@
         <v>104.5662069980139</v>
       </c>
       <c r="K9" t="n">
-        <v>104.1334409027093</v>
+        <v>104.1282964050785</v>
       </c>
       <c r="L9" t="n">
-        <v>104.0796274628114</v>
+        <v>104.0815833478313</v>
       </c>
     </row>
     <row r="10">
@@ -2190,25 +2278,25 @@
         <v>108.8243270561412</v>
       </c>
       <c r="F10" t="n">
-        <v>107.5248673913698</v>
+        <v>107.5242190132325</v>
       </c>
       <c r="G10" t="n">
-        <v>106.5759151470831</v>
+        <v>54.22582387954586</v>
       </c>
       <c r="H10" t="n">
-        <v>54.22581867593635</v>
+        <v>105.7625861160349</v>
       </c>
       <c r="I10" t="n">
-        <v>54.22581375647839</v>
+        <v>105.1132700792296</v>
       </c>
       <c r="J10" t="n">
-        <v>104.565878919085</v>
+        <v>104.5655508649383</v>
       </c>
       <c r="K10" t="n">
-        <v>104.0320780940659</v>
+        <v>54.22580372343052</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7258360930134</v>
+        <v>54.22580040369201</v>
       </c>
     </row>
     <row r="11">
@@ -2248,7 +2336,7 @@
         <v>104.0135498150239</v>
       </c>
       <c r="L11" t="n">
-        <v>103.7684018936764</v>
+        <v>103.7706777601298</v>
       </c>
     </row>
     <row r="12">
@@ -2279,16 +2367,16 @@
         <v>105.7625861160349</v>
       </c>
       <c r="I12" t="n">
-        <v>105.1516450313909</v>
+        <v>105.1128979597161</v>
       </c>
       <c r="J12" t="n">
-        <v>105.0058226714146</v>
+        <v>104.5662069980139</v>
       </c>
       <c r="K12" t="n">
-        <v>104.4601181496185</v>
+        <v>104.4530800309526</v>
       </c>
       <c r="L12" t="n">
-        <v>104.9105483860664</v>
+        <v>104.9165903741863</v>
       </c>
     </row>
     <row r="13">
@@ -2325,10 +2413,10 @@
         <v>104.5662069980139</v>
       </c>
       <c r="K13" t="n">
-        <v>104.0321748027408</v>
+        <v>104.0323682265515</v>
       </c>
       <c r="L13" t="n">
-        <v>103.7153044635439</v>
+        <v>103.7169230528485</v>
       </c>
     </row>
     <row r="14">
@@ -2359,16 +2447,16 @@
         <v>105.7630182856831</v>
       </c>
       <c r="I14" t="n">
-        <v>105.2318488480687</v>
+        <v>105.1214647857051</v>
       </c>
       <c r="J14" t="n">
-        <v>104.8052852394682</v>
+        <v>104.8055163516636</v>
       </c>
       <c r="K14" t="n">
-        <v>104.7782148221939</v>
+        <v>104.7623964351688</v>
       </c>
       <c r="L14" t="n">
-        <v>104.4201739514976</v>
+        <v>104.402655244812</v>
       </c>
     </row>
     <row r="15">
@@ -2408,7 +2496,7 @@
         <v>104.0135498150239</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6484824333124</v>
+        <v>103.6450310510904</v>
       </c>
     </row>
     <row r="16">
@@ -2445,10 +2533,10 @@
         <v>104.5662069980139</v>
       </c>
       <c r="K16" t="n">
-        <v>104.033819179787</v>
+        <v>104.0109506038429</v>
       </c>
       <c r="L16" t="n">
-        <v>103.6980769419816</v>
+        <v>103.6960178044372</v>
       </c>
     </row>
   </sheetData>
